--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_2.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="20" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,121 +477,117 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.06169533333333347</v>
+        <v>-0.08332423809523826</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.06169533333333348</v>
+        <v>-0.08332423809523824</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.387778780781446e-17</v>
+        <v>-1.387778780781446e-17</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.05003273509015241</v>
+        <v>-0.01711084267631095</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.0930640000000001</v>
+        <v>-0.09643104761904765</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.06206398289412867</v>
+        <v>-0.08353109885473191</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.03100001710587143</v>
+        <v>-0.01289994876431574</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.08800000000000001</v>
+        <v>-0.228</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.0419624544613961</v>
+        <v>-0.7095926461723934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.1078662857142858</v>
+        <v>-0.0980322619047619</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.06243263245492386</v>
+        <v>-0.08373795961422557</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.04543365325936194</v>
+        <v>-0.01429430229053633</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.328</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.7171967198335645</v>
+        <v>-0.02128488908981314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.1114681904761905</v>
+        <v>-0.09466371428571432</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.06280128201571905</v>
+        <v>-0.08394482037371924</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.04866690846047142</v>
+        <v>-0.01071889391199508</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.404</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.02484424271844657</v>
+        <v>-0.01821434418324291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1132026666666666</v>
+        <v>-0.1012625238095239</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.06316993157651424</v>
+        <v>-0.08415168113321292</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.05003273509015241</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="n">
-        <v>-0.404</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>-0.01869971058714745</v>
-      </c>
+        <v>-0.01711084267631095</v>
+      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1068664761904762</v>
+        <v>-0.09926276190476202</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.06353858113730944</v>
+        <v>-0.08435854189270658</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.04332789505316675</v>
+        <v>-0.01490422001205544</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -599,16 +595,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.1049307619047619</v>
+        <v>-0.1007283333333334</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.06390723069810463</v>
+        <v>-0.08456540265220025</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.04102353120665732</v>
+        <v>-0.01616293068113318</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -616,16 +612,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.09946271428571431</v>
+        <v>-0.1091309047619048</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.06427588025889981</v>
+        <v>-0.08477226341169393</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.0351868340268145</v>
+        <v>-0.02435864135021092</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -633,16 +629,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.09473323809523811</v>
+        <v>-0.1145361904761905</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.06464452981969501</v>
+        <v>-0.08497912417118759</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03008870827554309</v>
+        <v>-0.02955706630500292</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -650,16 +646,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.09160157142857139</v>
+        <v>-0.1220021428571429</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.0650131793804902</v>
+        <v>-0.08518598493068126</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.02658839204808119</v>
+        <v>-0.03681615792646162</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -667,16 +663,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.09546647619047613</v>
+        <v>-0.1349328095238096</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.06538182894128539</v>
+        <v>-0.08539284569017494</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.03008464724919074</v>
+        <v>-0.04953996383363463</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -684,16 +680,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.09859657142857137</v>
+        <v>-0.1371960952380953</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.06575047850208057</v>
+        <v>-0.08559970644966861</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.03284609292649079</v>
+        <v>-0.05159638878842668</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -701,16 +697,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1022644285714285</v>
+        <v>-0.1443300952380953</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.06611912806287577</v>
+        <v>-0.08580656720916227</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.03614530050855277</v>
+        <v>-0.05852352802893304</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -718,16 +714,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.05600000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.09919861904761905</v>
+        <v>-0.1544000952380953</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.06648777762367096</v>
+        <v>-0.08601342796865594</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.03271084142394809</v>
+        <v>-0.06838666726943937</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -735,16 +731,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.09146528571428575</v>
+        <v>-0.1658719523809525</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.06685642718446615</v>
+        <v>-0.08622028872814962</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.0246088585298196</v>
+        <v>-0.07965166365280284</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -752,16 +748,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.08899490476190482</v>
+        <v>-0.1860687142857144</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.06722507674526135</v>
+        <v>-0.08642714948764328</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.02176982801664347</v>
+        <v>-0.09964156479807108</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -769,16 +765,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.0877939047619048</v>
+        <v>-0.2031309523809525</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.06759372630605653</v>
+        <v>-0.08663401024713695</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.02020017845584826</v>
+        <v>-0.1164969421338156</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -786,16 +782,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07200000000000001</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.09273066666666666</v>
+        <v>-0.2225968095238097</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.06796237586685172</v>
+        <v>-0.08684087100663063</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.02476829079981493</v>
+        <v>-0.135755938517179</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -803,16 +799,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.07600000000000001</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.09986909523809522</v>
+        <v>-0.2481313333333335</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.06833102542764691</v>
+        <v>-0.08704773176612429</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.03153806981044831</v>
+        <v>-0.1610836015672092</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -820,16 +816,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.1094043333333333</v>
+        <v>-0.2738648095238096</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.06869967498844211</v>
+        <v>-0.08725459252561796</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.04070465834489119</v>
+        <v>-0.1866102169981917</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -837,16 +833,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.1100684285714286</v>
+        <v>-0.3080629047619049</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.06906832454923729</v>
+        <v>-0.08746145328511164</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.04100010402219126</v>
+        <v>-0.2206014514767933</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -854,16 +850,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08800000000000001</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.1113994285714286</v>
+        <v>-0.3539240952380954</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.06943697411003248</v>
+        <v>-0.0876683140446053</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.0419624544613961</v>
+        <v>-0.2662557811934901</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -871,16 +867,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1042</v>
+        <v>-0.3960601904761907</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.06980562367082767</v>
+        <v>-0.08787517480409897</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.03439437632917233</v>
+        <v>-0.3081850156720917</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -888,16 +884,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.09673342857142858</v>
+        <v>-0.4406675714285717</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.07017427323162287</v>
+        <v>-0.08808203556359265</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.02655915533980571</v>
+        <v>-0.352585535864979</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -905,16 +901,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.09193066666666667</v>
+        <v>-0.4882626666666669</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.07054292279241806</v>
+        <v>-0.08828889632308631</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.02138774387424862</v>
+        <v>-0.3999737703435806</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -922,16 +918,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.09359757142857142</v>
+        <v>-0.5387931904761909</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.07091157235321324</v>
+        <v>-0.08849575708257998</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02268599907535818</v>
+        <v>-0.4502974333936109</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -939,16 +935,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.09446314285714283</v>
+        <v>-0.591329428571429</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.07128022191400844</v>
+        <v>-0.08870261784207364</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.02318292094313439</v>
+        <v>-0.5026268107293553</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -956,16 +952,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.09466371428571427</v>
+        <v>-0.6481275238095243</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.07164887147480363</v>
+        <v>-0.08890947860156732</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.02301484281091064</v>
+        <v>-0.559218045207957</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -973,16 +969,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.1012625238095238</v>
+        <v>-0.6920607142857148</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.07201752103559882</v>
+        <v>-0.08911633936106099</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.029245002773925</v>
+        <v>-0.6029443749246538</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -990,16 +986,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.09926276190476196</v>
+        <v>-0.734799428571429</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.07238617059639402</v>
+        <v>-0.08932320012055465</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.02687659130836795</v>
+        <v>-0.6454762284508744</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1007,16 +1003,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.1007283333333334</v>
+        <v>-0.7657986666666672</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.0727548201571892</v>
+        <v>-0.08953006088004833</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.02797351317614417</v>
+        <v>-0.6762686057866188</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1024,16 +1020,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.1091309047619048</v>
+        <v>-0.7935340000000006</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.07312346971798439</v>
+        <v>-0.089736921639542</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.0360074350439204</v>
+        <v>-0.7037970783604586</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1041,16 +1037,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.1145361904761905</v>
+        <v>-0.799536428571429</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.07349211927877958</v>
+        <v>-0.08994378239903567</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.04104407119741088</v>
+        <v>-0.7095926461723934</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1058,16 +1054,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1220021428571428</v>
+        <v>-0.7852634761904767</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.07386076883957478</v>
+        <v>-0.09015064315852933</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.04814137401756803</v>
+        <v>-0.6951128330319474</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1075,16 +1071,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1349328095238095</v>
+        <v>-0.7454546190476194</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.07422941840036996</v>
+        <v>-0.09035750391802301</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.06070339112343952</v>
+        <v>-0.6550971151295965</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1092,16 +1088,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1371960952380952</v>
+        <v>-0.700987666666667</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.07459806796116515</v>
+        <v>-0.09056436467751668</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.06259802727693008</v>
+        <v>-0.6104233019891503</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1109,16 +1105,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.1443300952380953</v>
+        <v>-0.6401899523809527</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.07496671752196035</v>
+        <v>-0.09077122543701034</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.06936337771613491</v>
+        <v>-0.5494187269439423</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1126,16 +1122,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1544000952380952</v>
+        <v>-0.5862594285714289</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.07533536708275554</v>
+        <v>-0.09097808619650402</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.07906472815533969</v>
+        <v>-0.4952813423749248</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1143,16 +1139,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.1658719523809524</v>
+        <v>-0.5359967142857145</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.07570401664355073</v>
+        <v>-0.09118494695599769</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.09016793573740164</v>
+        <v>-0.4448117673297168</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1160,16 +1156,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.1860687142857143</v>
+        <v>-0.4875992380952384</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.07607266620434591</v>
+        <v>-0.09139180771549135</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.1099960480813683</v>
+        <v>-0.396207430379747</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1177,16 +1173,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.2031309523809524</v>
+        <v>-0.435200666666667</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.0764413157651411</v>
+        <v>-0.09159866847498503</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1266896366158113</v>
+        <v>-0.3436019981916819</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1194,16 +1190,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.2225968095238096</v>
+        <v>-0.3819389523809526</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.0768099653259363</v>
+        <v>-0.0918055292344787</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1457868441978732</v>
+        <v>-0.2901334231464739</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1211,16 +1207,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.2481313333333334</v>
+        <v>-0.3204046666666669</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.07717861488673149</v>
+        <v>-0.09201238999397236</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.1709527184466019</v>
+        <v>-0.2283922766726945</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1228,16 +1224,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2738648095238095</v>
+        <v>-0.2697390952380954</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.07754726444752669</v>
+        <v>-0.09221925075346604</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1963175450762829</v>
+        <v>-0.1775198444846293</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1245,16 +1241,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.3080629047619048</v>
+        <v>-0.2330064761904763</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.07791591400832187</v>
+        <v>-0.09242611151295971</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.2301469907535829</v>
+        <v>-0.1405803646775166</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1262,16 +1258,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.3539240952380953</v>
+        <v>-0.2077352857142858</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.07828456356911706</v>
+        <v>-0.09263297227245337</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.2756395316689783</v>
+        <v>-0.1151023134418324</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1279,16 +1275,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.3960601904761905</v>
+        <v>-0.191661761904762</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.07865321312991225</v>
+        <v>-0.09283983303194704</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.3174069773462782</v>
+        <v>-0.09882192887281496</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1296,16 +1292,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.4406675714285714</v>
+        <v>-0.1778630476190477</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.07902186269070743</v>
+        <v>-0.09304669379144072</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.3616457087378639</v>
+        <v>-0.08481635382760698</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1313,16 +1309,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.4882626666666667</v>
+        <v>-0.1630620476190477</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.07939051225150263</v>
+        <v>-0.09325355455093438</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.4088721544151641</v>
+        <v>-0.06980849306811333</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1330,16 +1326,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.5387931904761906</v>
+        <v>-0.1535331428571429</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.07975916181229782</v>
+        <v>-0.09346041531042805</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.4590340286638928</v>
+        <v>-0.06007272754671487</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1347,16 +1343,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.5913294285714287</v>
+        <v>-0.1421342380952382</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.08012781137309302</v>
+        <v>-0.09366727606992173</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.5112016171983357</v>
+        <v>-0.04846696202531645</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1364,16 +1360,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.648127523809524</v>
+        <v>-0.1321340476190477</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.08049646093388821</v>
+        <v>-0.09387413682941539</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.5676310628756358</v>
+        <v>-0.03825991078963231</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1381,16 +1377,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.6920607142857145</v>
+        <v>-0.1237335714285715</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.0808651104946834</v>
+        <v>-0.09408099758890906</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.6111956037910311</v>
+        <v>-0.02965257383966245</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1398,16 +1394,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.7347994285714288</v>
+        <v>-0.1194689047619049</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.08123376005547858</v>
+        <v>-0.09428785834840273</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.6535656685159502</v>
+        <v>-0.02518104641350213</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1415,16 +1411,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.7657986666666667</v>
+        <v>-0.1150016190476192</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.08160240961627377</v>
+        <v>-0.0944947191078964</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.684196257050393</v>
+        <v>-0.02050689993972275</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1432,16 +1428,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.7935340000000002</v>
+        <v>-0.1146663333333334</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.08197105917706897</v>
+        <v>-0.09470157986739007</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.7115629408229313</v>
+        <v>-0.01996475346594336</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1449,16 +1445,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.7995364285714286</v>
+        <v>-0.1139985238095239</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.08233970873786416</v>
+        <v>-0.09490844062688375</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.7171967198335645</v>
+        <v>-0.01909008318264015</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1466,16 +1462,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.7852634761904762</v>
+        <v>-0.1164001904761906</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.08270835829865934</v>
+        <v>-0.09511530138637742</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.7025551178918169</v>
+        <v>-0.02128488908981314</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1483,16 +1479,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.745454619047619</v>
+        <v>-0.1162668571428572</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.08307700785945454</v>
+        <v>-0.09532216214587108</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.6623776111881645</v>
+        <v>-0.02094469499698613</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1500,16 +1496,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.7009876666666666</v>
+        <v>-0.1117352380952382</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.08344565742024973</v>
+        <v>-0.09552902290536475</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.6175420092464168</v>
+        <v>-0.01620621518987343</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1517,16 +1513,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.6401899523809524</v>
+        <v>-0.1054681904761905</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.08381430698104492</v>
+        <v>-0.09573588366485843</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.5563756453999076</v>
+        <v>-0.009732306811332123</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1534,16 +1530,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.5862594285714287</v>
+        <v>-0.1008024761904762</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.0841829565418401</v>
+        <v>-0.09594274442435209</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.5020764720295885</v>
+        <v>-0.004859731766124142</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1551,16 +1547,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.5359967142857143</v>
+        <v>-0.09440361904761908</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.0845516061026353</v>
+        <v>-0.09614960518384577</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.451445108183079</v>
+        <v>0.001745986136226688</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1568,16 +1564,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.4875992380952381</v>
+        <v>-0.1012060476190476</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.08492025566343049</v>
+        <v>-0.09635646594333944</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.4026789824318076</v>
+        <v>-0.004849581675708203</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1585,16 +1581,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.4352006666666667</v>
+        <v>-0.1036685714285714</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.08528890522422568</v>
+        <v>-0.0965633267028331</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.349911761442441</v>
+        <v>-0.007105244725738341</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1602,16 +1598,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.3819389523809524</v>
+        <v>-0.09966742857142863</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.08565755478502088</v>
+        <v>-0.09677018746232677</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.2962813975959315</v>
+        <v>-0.002897241109101861</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1619,16 +1615,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.3204046666666667</v>
+        <v>-0.09686638095238102</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.08602620434581607</v>
+        <v>-0.09697704822182043</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.2343784623208506</v>
+        <v>0.0001106672694394101</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1636,16 +1632,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.2697390952380953</v>
+        <v>-0.09920119047619055</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.08639485390661125</v>
+        <v>-0.09718390898131411</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.183344241331484</v>
+        <v>-0.002017281494876441</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1653,16 +1649,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.2330064761904762</v>
+        <v>-0.1013354761904763</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.08676350346740644</v>
+        <v>-0.09739076974080778</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1462429727230698</v>
+        <v>-0.003944706449668531</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1670,16 +1666,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.2077352857142857</v>
+        <v>-0.1082709047619048</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.08713215302820164</v>
+        <v>-0.09759763050030146</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.120603132686084</v>
+        <v>-0.01067327426160339</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1687,16 +1683,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1916617619047619</v>
+        <v>-0.1076697142857143</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.08750080258899683</v>
+        <v>-0.09780449125979512</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.1041609593157651</v>
+        <v>-0.00986522302591919</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1704,16 +1700,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1778630476190476</v>
+        <v>-0.1038681428571429</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.08786945214979203</v>
+        <v>-0.09801135201928879</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.08999359546925559</v>
+        <v>-0.005856790837854106</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1721,16 +1717,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1630620476190476</v>
+        <v>-0.101200380952381</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.08823810171058721</v>
+        <v>-0.09821821277878245</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.07482394590846042</v>
+        <v>-0.002982168173598532</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1738,16 +1734,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1535331428571428</v>
+        <v>-0.09899728571428576</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.0886067512713824</v>
+        <v>-0.09842507353827613</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.06492639158576041</v>
+        <v>-0.000572212176009626</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1755,16 +1751,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1421342380952381</v>
+        <v>-0.1075983333333334</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.08897540083217759</v>
+        <v>-0.0986319342977698</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.0531588372630605</v>
+        <v>-0.00896639903556358</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1772,16 +1768,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1321340476190476</v>
+        <v>-0.113462761904762</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.08934405039297277</v>
+        <v>-0.09883879505726346</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.04278999722607485</v>
+        <v>-0.01462396684749849</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1789,16 +1785,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1237335714285714</v>
+        <v>-0.1172600000000001</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.08971269995376796</v>
+        <v>-0.09904565581675714</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.03402087147480348</v>
+        <v>-0.01821434418324291</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1806,16 +1802,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1194689047619048</v>
+        <v>-0.1115954761904762</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.09008134951456316</v>
+        <v>-0.09925251657625081</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.02938755524734163</v>
+        <v>-0.01234295961422543</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1823,16 +1819,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1150016190476191</v>
+        <v>-0.1079972857142858</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.09044999907535835</v>
+        <v>-0.09945937733574448</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.02455161997226074</v>
+        <v>-0.00853790837854132</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1840,16 +1836,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1146663333333334</v>
+        <v>-0.09966623809523817</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.09081864863615355</v>
+        <v>-0.09966623809523814</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.02384768469717981</v>
+        <v>-2.775557561562891e-17</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1857,16 +1853,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1139985238095238</v>
+        <v>-0.1068678095238096</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.09118729819694874</v>
+        <v>-0.1068678095238096</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.02281122561257509</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1874,16 +1870,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1164001904761905</v>
+        <v>-0.1141345714285715</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.09155594775774392</v>
+        <v>-0.1141345714285715</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.02484424271844657</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1891,16 +1887,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1162668571428572</v>
+        <v>-0.1243318095238096</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.09192459731853911</v>
+        <v>-0.1243318095238096</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.02434225982431805</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1908,16 +1904,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1117352380952381</v>
+        <v>-0.1254675714285715</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.09229324687933431</v>
+        <v>-0.1254675714285715</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.01944199121590381</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1925,16 +1921,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1054681904761905</v>
+        <v>-0.1270690000000001</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.0926618964401295</v>
+        <v>-0.1270690000000001</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.01280629403606098</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1942,16 +1938,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1008024761904762</v>
+        <v>-0.1281385714285715</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.0930305460009247</v>
+        <v>-0.1281385714285715</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.007771930189551468</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1959,16 +1955,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.09440361904761904</v>
+        <v>-0.1300697142857143</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.09339919556171988</v>
+        <v>-0.1300697142857143</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.001004423485899159</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1976,16 +1972,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1012060476190476</v>
+        <v>-0.1290057142857143</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.09376784512251507</v>
+        <v>-0.1290057142857143</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.007438202496532528</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1993,16 +1989,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1036685714285714</v>
+        <v>-0.1334720476190476</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.09413649468331026</v>
+        <v>-0.1334720476190476</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.009532076745261131</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2010,16 +2006,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.09966742857142857</v>
+        <v>-0.1370725238095238</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.09450514424410544</v>
+        <v>-0.1370725238095238</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.00516228432732313</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2027,16 +2023,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.09686638095238098</v>
+        <v>-0.134339761904762</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.09487379380490063</v>
+        <v>-0.134339761904762</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.001992587147480351</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2044,16 +2040,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.0992011904761905</v>
+        <v>-0.1348061428571429</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.09524244336569582</v>
+        <v>-0.1348061428571429</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.003958747110494681</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2061,16 +2057,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1013354761904763</v>
+        <v>-0.1368704761904763</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.09561109292649102</v>
+        <v>-0.1368704761904763</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-0.005724383263985236</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2078,16 +2074,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1082709047619048</v>
+        <v>-0.1337330476190477</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.09597974248728622</v>
+        <v>-0.1337330476190477</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-0.01229116227461857</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2095,16 +2091,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1076697142857143</v>
+        <v>-0.1386618571428572</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.0963483920480814</v>
+        <v>-0.1386618571428572</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.01132132223763285</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2112,16 +2108,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1038681428571428</v>
+        <v>-0.143862380952381</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.09671704160887659</v>
+        <v>-0.143862380952381</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-0.007151101248266234</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2129,16 +2125,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1012003809523809</v>
+        <v>-0.1475992857142858</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.09708569116967178</v>
+        <v>-0.1475992857142858</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-0.004114689782709152</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2146,16 +2142,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.0989972857142857</v>
+        <v>-0.1502665238095239</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.09745434073046697</v>
+        <v>-0.1502665238095239</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-0.001542944983818739</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2163,16 +2159,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1075983333333333</v>
+        <v>-0.1533995476190478</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.09782299029126217</v>
+        <v>-0.1533995476190478</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-0.009775343042071158</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2180,16 +2176,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1134627619047619</v>
+        <v>-0.155198904761905</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.09819163985205735</v>
+        <v>-0.155198904761905</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-0.01527112205270455</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2197,428 +2193,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.11726</v>
+        <v>-0.1549652619047621</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.09856028941285255</v>
+        <v>-0.1549652619047621</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.01869971058714745</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.1115954761904762</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.09892893897364774</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>-0.01266653721682845</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.1079972857142857</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.09929758853444293</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>-0.008699697179842814</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.0996662380952381</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.09966623809523811</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>1.387778780781446e-17</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.1068678095238095</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.1068678095238095</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.1141345714285714</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.1141345714285714</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.1243318095238095</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.1243318095238095</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.1254675714285714</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.1254675714285714</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.127069</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.127069</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.1281385714285714</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.1281385714285714</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-0.1300697142857143</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-0.1300697142857143</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.1290057142857143</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-0.1290057142857143</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-0.1334720476190476</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-0.1334720476190476</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.1370725238095238</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-0.1370725238095238</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.1343397619047619</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-0.1343397619047619</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.1348061428571428</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-0.1348061428571428</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.1368704761904762</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-0.1368704761904762</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.1337330476190476</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-0.1337330476190476</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.1386618571428571</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-0.1386618571428571</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-0.143862380952381</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-0.143862380952381</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.1475992857142857</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-0.1475992857142857</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.1502665238095238</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-0.1502665238095238</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-0.1533995476190477</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-0.1533995476190477</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.1551989047619049</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-0.1551989047619049</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.1549652619047621</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-0.1549652619047621</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2631,7 +2219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2639,7 +2227,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2657,42 +2245,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.05003273509015241</v>
+        <v>-0.01711084267631095</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.08800000000000001</v>
+        <v>-0.228</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.0419624544613961</v>
+        <v>-0.7095926461723934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.328</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.7171967198335645</v>
+        <v>-0.02128488908981314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.404</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.02484424271844657</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>-0.404</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.01869971058714745</v>
+        <v>-0.01821434418324291</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_2.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="20" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,134 +477,142 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.08332423809523826</v>
+        <v>-0.06169533333333346</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.08332423809523824</v>
+        <v>-0.06169533333333346</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.387778780781446e-17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.01711084267631095</v>
+        <v>-0.05003273509015249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.09643104761904765</v>
+        <v>-0.09306400000000002</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.08353109885473191</v>
+        <v>-0.06206398289412864</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.01289994876431574</v>
+        <v>-0.03100001710587138</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.08800000000000001</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.7095926461723934</v>
+        <v>-0.04196245446139618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.0980322619047619</v>
+        <v>-0.1078662857142857</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.08373795961422557</v>
+        <v>-0.06243263245492384</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.01429430229053633</v>
+        <v>-0.04543365325936187</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.228</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.02128488908981314</v>
+        <v>-0.7171967198335649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.09466371428571432</v>
+        <v>-0.1114681904761905</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.08394482037371924</v>
+        <v>-0.06280128201571902</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.01071889391199508</v>
+        <v>-0.04866690846047152</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.328</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.01821434418324291</v>
+        <v>-0.02484424271844661</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1012625238095239</v>
+        <v>-0.1132026666666667</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.08415168113321292</v>
+        <v>-0.06316993157651422</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.01711084267631095</v>
-      </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+        <v>-0.05003273509015249</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="n">
+        <v>-0.404</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.01869971058714748</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.09926276190476202</v>
+        <v>-0.1068664761904762</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.08435854189270658</v>
+        <v>-0.06353858113730941</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.01490422001205544</v>
-      </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
+        <v>-0.04332789505316684</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.01107341723355998</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.1007283333333334</v>
+        <v>-0.104930761904762</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.08456540265220025</v>
+        <v>-0.0639072306981046</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.01616293068113318</v>
+        <v>-0.0410235312066574</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -612,16 +620,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1091309047619048</v>
+        <v>-0.09946271428571436</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.08477226341169393</v>
+        <v>-0.0642758802588998</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02435864135021092</v>
+        <v>-0.03518683402681456</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -629,16 +637,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1145361904761905</v>
+        <v>-0.09473323809523818</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.08497912417118759</v>
+        <v>-0.06464452981969498</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.02955706630500292</v>
+        <v>-0.03008870827554319</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -646,16 +654,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1220021428571429</v>
+        <v>-0.09160157142857146</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.08518598493068126</v>
+        <v>-0.06501317938049017</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03681615792646162</v>
+        <v>-0.02658839204808129</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -663,16 +671,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1349328095238096</v>
+        <v>-0.09546647619047618</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.08539284569017494</v>
+        <v>-0.06538182894128537</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.04953996383363463</v>
+        <v>-0.03008464724919081</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -680,16 +688,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1371960952380953</v>
+        <v>-0.09859657142857142</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.08559970644966861</v>
+        <v>-0.06575047850208056</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.05159638878842668</v>
+        <v>-0.03284609292649086</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -697,16 +705,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1443300952380953</v>
+        <v>-0.1022644285714286</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.08580656720916227</v>
+        <v>-0.06611912806287575</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05852352802893304</v>
+        <v>-0.03614530050855284</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -714,16 +722,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.05600000000000001</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1544000952380953</v>
+        <v>-0.0991986190476191</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.08601342796865594</v>
+        <v>-0.06648777762367095</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.06838666726943937</v>
+        <v>-0.03271084142394816</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -731,16 +739,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1658719523809525</v>
+        <v>-0.0914652857142858</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.08622028872814962</v>
+        <v>-0.06685642718446613</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.07965166365280284</v>
+        <v>-0.02460885852981967</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -748,16 +756,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1860687142857144</v>
+        <v>-0.08899490476190487</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.08642714948764328</v>
+        <v>-0.06722507674526132</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.09964156479807108</v>
+        <v>-0.02176982801664355</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -765,16 +773,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.2031309523809525</v>
+        <v>-0.08779390476190485</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.08663401024713695</v>
+        <v>-0.06759372630605652</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1164969421338156</v>
+        <v>-0.02020017845584833</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -782,16 +790,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07200000000000001</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.2225968095238097</v>
+        <v>-0.09273066666666671</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.08684087100663063</v>
+        <v>-0.06796237586685171</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.135755938517179</v>
+        <v>-0.024768290799815</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -799,16 +807,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.07600000000000001</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.2481313333333335</v>
+        <v>-0.09986909523809528</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.08704773176612429</v>
+        <v>-0.06833102542764689</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1610836015672092</v>
+        <v>-0.03153806981044839</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -816,16 +824,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.2738648095238096</v>
+        <v>-0.1094043333333334</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.08725459252561796</v>
+        <v>-0.06869967498844209</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1866102169981917</v>
+        <v>-0.04070465834489126</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -833,16 +841,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.3080629047619049</v>
+        <v>-0.1100684285714286</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.08746145328511164</v>
+        <v>-0.06906832454923728</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2206014514767933</v>
+        <v>-0.04100010402219134</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -850,16 +858,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08800000000000001</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.3539240952380954</v>
+        <v>-0.1113994285714286</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.0876683140446053</v>
+        <v>-0.06943697411003247</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2662557811934901</v>
+        <v>-0.04196245446139618</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -867,16 +875,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.3960601904761907</v>
+        <v>-0.1042000000000001</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.08787517480409897</v>
+        <v>-0.06980562367082767</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3081850156720917</v>
+        <v>-0.0343943763291724</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -884,16 +892,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.4406675714285717</v>
+        <v>-0.09673342857142864</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.08808203556359265</v>
+        <v>-0.07017427323162286</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.352585535864979</v>
+        <v>-0.02655915533980578</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -901,16 +909,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.4882626666666669</v>
+        <v>-0.09193066666666673</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.08828889632308631</v>
+        <v>-0.07054292279241804</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.3999737703435806</v>
+        <v>-0.02138774387424869</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -918,16 +926,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.5387931904761909</v>
+        <v>-0.09359757142857146</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.08849575708257998</v>
+        <v>-0.07091157235321324</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4502974333936109</v>
+        <v>-0.02268599907535822</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -935,16 +943,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.591329428571429</v>
+        <v>-0.09446314285714288</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.08870261784207364</v>
+        <v>-0.07128022191400843</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.5026268107293553</v>
+        <v>-0.02318292094313446</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -952,16 +960,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.6481275238095243</v>
+        <v>-0.09466371428571432</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.08890947860156732</v>
+        <v>-0.07164887147480362</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.559218045207957</v>
+        <v>-0.02301484281091071</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -969,16 +977,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.6920607142857148</v>
+        <v>-0.1012625238095239</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.08911633936106099</v>
+        <v>-0.07201752103559882</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.6029443749246538</v>
+        <v>-0.02924500277392504</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -986,16 +994,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.734799428571429</v>
+        <v>-0.09926276190476202</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.08932320012055465</v>
+        <v>-0.072386170596394</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.6454762284508744</v>
+        <v>-0.02687659130836802</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1003,16 +1011,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.7657986666666672</v>
+        <v>-0.1007283333333334</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.08953006088004833</v>
+        <v>-0.07275482015718919</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.6762686057866188</v>
+        <v>-0.02797351317614423</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1020,16 +1028,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.7935340000000006</v>
+        <v>-0.1091309047619049</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.089736921639542</v>
+        <v>-0.07312346971798439</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.7037970783604586</v>
+        <v>-0.03600743504392047</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1037,16 +1045,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.799536428571429</v>
+        <v>-0.1145361904761905</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.08994378239903567</v>
+        <v>-0.07349211927877958</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.7095926461723934</v>
+        <v>-0.04104407119741095</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1054,16 +1062,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.7852634761904767</v>
+        <v>-0.1220021428571429</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.09015064315852933</v>
+        <v>-0.07386076883957476</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.6951128330319474</v>
+        <v>-0.04814137401756813</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1071,16 +1079,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.7454546190476194</v>
+        <v>-0.1349328095238096</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.09035750391802301</v>
+        <v>-0.07422941840036996</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6550971151295965</v>
+        <v>-0.0607033911234396</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1088,16 +1096,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.700987666666667</v>
+        <v>-0.1371960952380953</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.09056436467751668</v>
+        <v>-0.07459806796116515</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6104233019891503</v>
+        <v>-0.06259802727693013</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1105,16 +1113,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.6401899523809527</v>
+        <v>-0.1443300952380953</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.09077122543701034</v>
+        <v>-0.07496671752196034</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.5494187269439423</v>
+        <v>-0.06936337771613497</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1122,16 +1130,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.5862594285714289</v>
+        <v>-0.1544000952380953</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.09097808619650402</v>
+        <v>-0.07533536708275554</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.4952813423749248</v>
+        <v>-0.07906472815533977</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1139,16 +1147,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.5359967142857145</v>
+        <v>-0.1658719523809525</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.09118494695599769</v>
+        <v>-0.07570401664355073</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.4448117673297168</v>
+        <v>-0.09016793573740176</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1156,16 +1164,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.4875992380952384</v>
+        <v>-0.1860687142857144</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.09139180771549135</v>
+        <v>-0.07607266620434591</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.396207430379747</v>
+        <v>-0.1099960480813685</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1173,16 +1181,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.435200666666667</v>
+        <v>-0.2031309523809525</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.09159866847498503</v>
+        <v>-0.07644131576514111</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.3436019981916819</v>
+        <v>-0.1266896366158114</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1190,16 +1198,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.3819389523809526</v>
+        <v>-0.2225968095238097</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.0918055292344787</v>
+        <v>-0.0768099653259363</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.2901334231464739</v>
+        <v>-0.1457868441978734</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1207,16 +1215,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.3204046666666669</v>
+        <v>-0.2481313333333335</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.09201238999397236</v>
+        <v>-0.07717861488673149</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.2283922766726945</v>
+        <v>-0.170952718446602</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1224,16 +1232,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2697390952380954</v>
+        <v>-0.2738648095238097</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.09221925075346604</v>
+        <v>-0.07754726444752669</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1775198444846293</v>
+        <v>-0.196317545076283</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1241,16 +1249,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.2330064761904763</v>
+        <v>-0.3080629047619049</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.09242611151295971</v>
+        <v>-0.07791591400832187</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1405803646775166</v>
+        <v>-0.230146990753583</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1258,16 +1266,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.2077352857142858</v>
+        <v>-0.3539240952380955</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.09263297227245337</v>
+        <v>-0.07828456356911706</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1151023134418324</v>
+        <v>-0.2756395316689784</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1275,16 +1283,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.191661761904762</v>
+        <v>-0.3960601904761907</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.09283983303194704</v>
+        <v>-0.07865321312991225</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.09882192887281496</v>
+        <v>-0.3174069773462785</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1292,16 +1300,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.1778630476190477</v>
+        <v>-0.4406675714285717</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.09304669379144072</v>
+        <v>-0.07902186269070745</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.08481635382760698</v>
+        <v>-0.3616457087378642</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1309,16 +1317,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1630620476190477</v>
+        <v>-0.4882626666666669</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.09325355455093438</v>
+        <v>-0.07939051225150263</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.06980849306811333</v>
+        <v>-0.4088721544151643</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1326,16 +1334,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.1535331428571429</v>
+        <v>-0.5387931904761909</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.09346041531042805</v>
+        <v>-0.07975916181229784</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.06007272754671487</v>
+        <v>-0.4590340286638931</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1343,16 +1351,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.1421342380952382</v>
+        <v>-0.591329428571429</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.09366727606992173</v>
+        <v>-0.08012781137309302</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.04846696202531645</v>
+        <v>-0.511201617198336</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1360,16 +1368,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.1321340476190477</v>
+        <v>-0.6481275238095243</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.09387413682941539</v>
+        <v>-0.08049646093388821</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.03825991078963231</v>
+        <v>-0.5676310628756361</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1377,16 +1385,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.1237335714285715</v>
+        <v>-0.6920607142857148</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.09408099758890906</v>
+        <v>-0.08086511049468341</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.02965257383966245</v>
+        <v>-0.6111956037910314</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1394,16 +1402,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.1194689047619049</v>
+        <v>-0.734799428571429</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.09428785834840273</v>
+        <v>-0.0812337600554786</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.02518104641350213</v>
+        <v>-0.6535656685159504</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1411,16 +1419,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.1150016190476192</v>
+        <v>-0.7657986666666672</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.0944947191078964</v>
+        <v>-0.08160240961627378</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.02050689993972275</v>
+        <v>-0.6841962570503934</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1428,16 +1436,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.1146663333333334</v>
+        <v>-0.7935340000000005</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.09470157986739007</v>
+        <v>-0.08197105917706898</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.01996475346594336</v>
+        <v>-0.7115629408229316</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1445,16 +1453,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.1139985238095239</v>
+        <v>-0.799536428571429</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.09490844062688375</v>
+        <v>-0.08233970873786417</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.01909008318264015</v>
+        <v>-0.7171967198335649</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1462,16 +1470,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1164001904761906</v>
+        <v>-0.7852634761904767</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.09511530138637742</v>
+        <v>-0.08270835829865936</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.02128488908981314</v>
+        <v>-0.7025551178918172</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1479,16 +1487,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.1162668571428572</v>
+        <v>-0.7454546190476194</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.09532216214587108</v>
+        <v>-0.08307700785945456</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.02094469499698613</v>
+        <v>-0.6623776111881648</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1496,16 +1504,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.1117352380952382</v>
+        <v>-0.700987666666667</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.09552902290536475</v>
+        <v>-0.08344565742024974</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.01620621518987343</v>
+        <v>-0.6175420092464172</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1513,16 +1521,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.1054681904761905</v>
+        <v>-0.6401899523809528</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.09573588366485843</v>
+        <v>-0.08381430698104493</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.009732306811332123</v>
+        <v>-0.5563756453999078</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1530,16 +1538,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1008024761904762</v>
+        <v>-0.5862594285714289</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.09594274442435209</v>
+        <v>-0.08418295654184013</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.004859731766124142</v>
+        <v>-0.5020764720295887</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1547,16 +1555,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.09440361904761908</v>
+        <v>-0.5359967142857145</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.09614960518384577</v>
+        <v>-0.08455160610263532</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.001745986136226688</v>
+        <v>-0.4514451081830791</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1564,16 +1572,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.1012060476190476</v>
+        <v>-0.4875992380952384</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.09635646594333944</v>
+        <v>-0.08492025566343051</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.004849581675708203</v>
+        <v>-0.4026789824318079</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1581,16 +1589,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.1036685714285714</v>
+        <v>-0.435200666666667</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.0965633267028331</v>
+        <v>-0.08528890522422571</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.007105244725738341</v>
+        <v>-0.3499117614424412</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1598,16 +1606,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.09966742857142863</v>
+        <v>-0.3819389523809527</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.09677018746232677</v>
+        <v>-0.08565755478502089</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.002897241109101861</v>
+        <v>-0.2962813975959318</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1615,16 +1623,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.09686638095238102</v>
+        <v>-0.3204046666666669</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.09697704822182043</v>
+        <v>-0.08602620434581608</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.0001106672694394101</v>
+        <v>-0.2343784623208508</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1632,16 +1640,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.09920119047619055</v>
+        <v>-0.2697390952380954</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.09718390898131411</v>
+        <v>-0.08639485390661128</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.002017281494876441</v>
+        <v>-0.1833442413314841</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1649,16 +1657,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1013354761904763</v>
+        <v>-0.2330064761904763</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.09739076974080778</v>
+        <v>-0.08676350346740647</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.003944706449668531</v>
+        <v>-0.1462429727230699</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1666,16 +1674,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1082709047619048</v>
+        <v>-0.2077352857142858</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.09759763050030146</v>
+        <v>-0.08713215302820165</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.01067327426160339</v>
+        <v>-0.1206031326860841</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1683,16 +1691,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1076697142857143</v>
+        <v>-0.191661761904762</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.09780449125979512</v>
+        <v>-0.08750080258899685</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.00986522302591919</v>
+        <v>-0.1041609593157651</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1700,16 +1708,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1038681428571429</v>
+        <v>-0.1778630476190477</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.09801135201928879</v>
+        <v>-0.08786945214979204</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.005856790837854106</v>
+        <v>-0.08999359546925566</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1717,16 +1725,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.101200380952381</v>
+        <v>-0.1630620476190477</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.09821821277878245</v>
+        <v>-0.08823810171058724</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.002982168173598532</v>
+        <v>-0.07482394590846045</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1734,16 +1742,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.09899728571428576</v>
+        <v>-0.1535331428571429</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.09842507353827613</v>
+        <v>-0.08860675127138243</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.000572212176009626</v>
+        <v>-0.0649263915857605</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1751,16 +1759,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1075983333333334</v>
+        <v>-0.1421342380952382</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.0986319342977698</v>
+        <v>-0.08897540083217761</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.00896639903556358</v>
+        <v>-0.05315883726306056</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1768,16 +1776,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.113462761904762</v>
+        <v>-0.1321340476190477</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.09883879505726346</v>
+        <v>-0.0893440503929728</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.01462396684749849</v>
+        <v>-0.04278999722607491</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1785,16 +1793,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1172600000000001</v>
+        <v>-0.1237335714285715</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.09904565581675714</v>
+        <v>-0.08971269995376799</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01821434418324291</v>
+        <v>-0.03402087147480354</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1802,16 +1810,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1115954761904762</v>
+        <v>-0.1194689047619049</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.09925251657625081</v>
+        <v>-0.09008134951456319</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.01234295961422543</v>
+        <v>-0.02938755524734167</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1819,16 +1827,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1079972857142858</v>
+        <v>-0.1150016190476192</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.09945937733574448</v>
+        <v>-0.09044999907535838</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.00853790837854132</v>
+        <v>-0.02455161997226078</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1836,16 +1844,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.09966623809523817</v>
+        <v>-0.1146663333333334</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.09966623809523814</v>
+        <v>-0.09081864863615358</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>-0.02384768469717985</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1853,16 +1861,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1068678095238096</v>
+        <v>-0.1139985238095239</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1068678095238096</v>
+        <v>-0.09118729819694876</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0</v>
+        <v>-0.02281122561257512</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1870,16 +1878,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1141345714285715</v>
+        <v>-0.1164001904761906</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1141345714285715</v>
+        <v>-0.09155594775774395</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>-0.02484424271844661</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1887,16 +1895,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1243318095238096</v>
+        <v>-0.1162668571428572</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1243318095238096</v>
+        <v>-0.09192459731853915</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0</v>
+        <v>-0.02434225982431808</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1904,16 +1912,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1254675714285715</v>
+        <v>-0.1117352380952382</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1254675714285715</v>
+        <v>-0.09229324687933434</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0</v>
+        <v>-0.01944199121590386</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1921,16 +1929,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1270690000000001</v>
+        <v>-0.1054681904761905</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1270690000000001</v>
+        <v>-0.09266189644012954</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>-0.01280629403606101</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1938,16 +1946,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1281385714285715</v>
+        <v>-0.1008024761904762</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1281385714285715</v>
+        <v>-0.09303054600092472</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>-0.00777193018955151</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1955,16 +1963,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1300697142857143</v>
+        <v>-0.09440361904761907</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1300697142857143</v>
+        <v>-0.09339919556171991</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0</v>
+        <v>-0.001004423485899159</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1972,16 +1980,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1290057142857143</v>
+        <v>-0.1012060476190476</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1290057142857143</v>
+        <v>-0.0937678451225151</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>-0.007438202496532542</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1989,16 +1997,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1334720476190476</v>
+        <v>-0.1036685714285714</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1334720476190476</v>
+        <v>-0.09413649468331028</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0</v>
+        <v>-0.009532076745261159</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2006,16 +2014,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1370725238095238</v>
+        <v>-0.09966742857142862</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1370725238095238</v>
+        <v>-0.09450514424410549</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0</v>
+        <v>-0.00516228432732313</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2023,16 +2031,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.134339761904762</v>
+        <v>-0.09686638095238102</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.134339761904762</v>
+        <v>-0.09487379380490067</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-0.001992587147480351</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2040,16 +2048,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1348061428571429</v>
+        <v>-0.09920119047619055</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1348061428571429</v>
+        <v>-0.09524244336569587</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-0.003958747110494681</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2057,16 +2065,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1368704761904763</v>
+        <v>-0.1013354761904763</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1368704761904763</v>
+        <v>-0.09561109292649106</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.00572438326398525</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2074,16 +2082,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1337330476190477</v>
+        <v>-0.1082709047619049</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1337330476190477</v>
+        <v>-0.09597974248728625</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.01229116227461863</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2091,16 +2099,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1386618571428572</v>
+        <v>-0.1076697142857143</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1386618571428572</v>
+        <v>-0.09634839204808143</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0</v>
+        <v>-0.01132132223763288</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2108,16 +2116,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.143862380952381</v>
+        <v>-0.1038681428571429</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.143862380952381</v>
+        <v>-0.09671704160887663</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.007151101248266262</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2125,16 +2133,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1475992857142858</v>
+        <v>-0.101200380952381</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1475992857142858</v>
+        <v>-0.09708569116967183</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.004114689782709152</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2142,16 +2150,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1502665238095239</v>
+        <v>-0.09899728571428576</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1502665238095239</v>
+        <v>-0.09745434073046702</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.001542944983818739</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2159,16 +2167,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1533995476190478</v>
+        <v>-0.1075983333333334</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1533995476190478</v>
+        <v>-0.09782299029126221</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-0.009775343042071172</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2176,16 +2184,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.155198904761905</v>
+        <v>-0.113462761904762</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.155198904761905</v>
+        <v>-0.09819163985205739</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-0.01527112205270456</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2193,20 +2201,428 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1549652619047621</v>
+        <v>-0.1172600000000001</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1549652619047621</v>
+        <v>-0.09856028941285258</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-0.01869971058714748</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.1115954761904763</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.09892893897364778</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>-0.01266653721682848</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.1079972857142858</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.09929758853444298</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>-0.008699697179842814</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.09966623809523817</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.09966623809523817</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.1068678095238096</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.1022995249433107</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>-0.004568284580498849</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.1141345714285715</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.1049328117913833</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>-0.009201759637188223</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.1243318095238096</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.1075660986394559</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>-0.01676571088435372</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.1254675714285715</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.1101993854875284</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>-0.01526818594104307</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.1270690000000001</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.112832672335601</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>-0.01423632766439911</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.1281385714285715</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.1154659591836736</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>-0.01267261224489794</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.1300697142857144</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-0.1180992460317462</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>-0.01197046825396822</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.1290057142857143</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-0.1207325328798187</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>-0.008273181405895613</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.1334720476190477</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-0.1233658197278913</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>-0.01010622789115637</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.1370725238095238</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-0.1259991065759639</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>-0.01107341723355998</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.134339761904762</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-0.1286323934240365</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>-0.005707368480725505</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.1348061428571429</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-0.1312656802721091</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>-0.003540462585033849</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.1368704761904763</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-0.1338989671201816</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>-0.002971509070294642</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.1337330476190477</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-0.1365322539682542</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0.002799206349206468</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.1386618571428572</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-0.1391655408163268</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0.0005036836734695349</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-0.143862380952381</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-0.1417988276643993</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>-0.00206355328798169</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.1475992857142858</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-0.1444321145124719</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>-0.003167171201813923</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.1502665238095239</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-0.1470654013605445</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>-0.003201122448979438</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-0.1533995476190478</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-0.149698688208617</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>-0.003700859410430801</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-0.155198904761905</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-0.1523319750566896</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>-0.002866929705215432</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.1549652619047622</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-0.1549652619047622</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2219,7 +2635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2643,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2245,34 +2661,50 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.01711084267631095</v>
+        <v>-0.05003273509015249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.08800000000000001</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.7095926461723934</v>
+        <v>-0.04196245446139618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.228</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.02128488908981314</v>
+        <v>-0.7171967198335649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>-0.02484424271844661</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>-0.404</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>-0.01821434418324291</v>
+      <c r="B6" s="2" t="n">
+        <v>-0.01869971058714748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.01107341723355998</v>
       </c>
     </row>
   </sheetData>
